--- a/RVario6/BOM_stripped.xlsx
+++ b/RVario6/BOM_stripped.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB62E23-94BE-4E17-BFDD-46045E916185}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F02E4F-3B3B-4FD5-92F2-0A078B9D9FB3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22257" windowHeight="12649" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>U1</t>
   </si>
@@ -78,9 +78,6 @@
     <t>C13</t>
   </si>
   <si>
-    <t>R3,R4,R7,R8</t>
-  </si>
-  <si>
     <t>C1,C2,C3,C4,C5,C15</t>
   </si>
   <si>
@@ -94,6 +91,15 @@
   </si>
   <si>
     <t>C6,C7,C8,C9,C10,C11,C14,C16,C17,C18</t>
+  </si>
+  <si>
+    <t>Q1,Q2</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>R3,R4,R8,R9,R10</t>
   </si>
 </sst>
 </file>
@@ -411,17 +417,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.796875" customWidth="1"/>
-    <col min="2" max="2" width="16.296875" customWidth="1"/>
-    <col min="4" max="4" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -429,10 +434,10 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -440,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>310010016</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -451,10 +456,10 @@
         <v>5</v>
       </c>
       <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>320010005</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -462,10 +467,10 @@
         <v>6</v>
       </c>
       <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
         <v>301010289</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -473,10 +478,10 @@
         <v>4</v>
       </c>
       <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
         <v>306010053</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -484,10 +489,10 @@
         <v>7</v>
       </c>
       <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
         <v>304020012</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -495,43 +500,43 @@
         <v>9</v>
       </c>
       <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
         <v>310030097</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
         <v>302010178</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
         <v>302010138</v>
-      </c>
-      <c r="C9">
-        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
         <v>301010124</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -539,10 +544,10 @@
         <v>8</v>
       </c>
       <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
         <v>302010140</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -550,10 +555,10 @@
         <v>10</v>
       </c>
       <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
         <v>314030010</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -561,10 +566,10 @@
         <v>11</v>
       </c>
       <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
         <v>304090043</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -572,10 +577,10 @@
         <v>12</v>
       </c>
       <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
         <v>304090045</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -583,10 +588,10 @@
         <v>13</v>
       </c>
       <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
         <v>301010163</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -594,10 +599,10 @@
         <v>14</v>
       </c>
       <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
         <v>320020077</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -605,10 +610,10 @@
         <v>15</v>
       </c>
       <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
         <v>310090078</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -616,43 +621,65 @@
         <v>16</v>
       </c>
       <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
         <v>302010139</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
         <v>314990005</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
         <v>311020004</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
         <v>320090008</v>
       </c>
-      <c r="C21">
-        <v>1</v>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>305030015</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>301010084</v>
       </c>
     </row>
   </sheetData>

--- a/RVario6/BOM_stripped.xlsx
+++ b/RVario6/BOM_stripped.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F02E4F-3B3B-4FD5-92F2-0A078B9D9FB3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600D7ABB-77E4-4FA3-8543-30256DC59D6A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22257" windowHeight="12649" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -420,7 +420,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
